--- a/Publication/Outputs/Tables/T2.xlsx
+++ b/Publication/Outputs/Tables/T2.xlsx
@@ -603,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>

--- a/Publication/Outputs/Tables/T2.xlsx
+++ b/Publication/Outputs/Tables/T2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Machine Learning Model*</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">Built-in</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80 [0.79–0.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69% [67%–71%]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75% [70%–77%]</t>
+    <t xml:space="preserve">0.79 [0.57–0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66% [33%–100%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74% [62%–82%]</t>
   </si>
   <si>
     <t xml:space="preserve">SVM</t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.71 [0.48–0.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66% [33%–100%]</t>
   </si>
   <si>
     <t xml:space="preserve">65% [54%–77%]</t>
@@ -488,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -586,18 +583,18 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -606,13 +603,13 @@
         <v>0.27</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
